--- a/train_y_semanal.xlsx
+++ b/train_y_semanal.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1006"/>
+  <dimension ref="A1:B1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8488,7 +8488,39 @@
         <v>45725</v>
       </c>
       <c r="B1006" t="n">
-        <v>8.200000000000001</v>
+        <v>10.88571428571429</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>6.114285714285714</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>11.71428571428571</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>7.828571428571428</v>
       </c>
     </row>
   </sheetData>
